--- a/CSE304-2020 Lab Grades.xlsx
+++ b/CSE304-2020 Lab Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Lab Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA03FB4-1FF2-4FDA-A3A8-7142D919C301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57FFB12-A36C-4133-9067-24915A01DBF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-115" yWindow="-115" windowWidth="24697" windowHeight="13381" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
+    <workbookView xWindow="2638" yWindow="2638" windowWidth="18350" windowHeight="9557" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -33,45 +33,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
-    <t>Bölümü :</t>
-  </si>
-  <si>
-    <t>Öğretim Yılı :</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019 - 2020 </t>
   </si>
   <si>
-    <t>Ders Adı :</t>
-  </si>
-  <si>
-    <t>Dönemi :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahar </t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>Öğrenci No</t>
-  </si>
-  <si>
-    <t>Adı</t>
-  </si>
-  <si>
-    <t>Soyadı</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">İBRAHİM </t>
   </si>
   <si>
-    <t>LAB NOTLARI</t>
-  </si>
-  <si>
     <t>Lab1</t>
   </si>
   <si>
@@ -90,15 +63,6 @@
     <t>Lab6</t>
   </si>
   <si>
-    <t>T.C. TOROS ÜNİVERSİTESİ MÜHENDİSLİK FAKÜLTESİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50506002 CSE304 BİLGİSAYAR AĞLARI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BİLGİSAYAR VE YAZILIM MÜHENDİSLİĞİ </t>
-  </si>
-  <si>
     <t xml:space="preserve">MUSTAFA </t>
   </si>
   <si>
@@ -253,13 +217,49 @@
   </si>
   <si>
     <t>ALKAŞI</t>
+  </si>
+  <si>
+    <t>50506002 CSE304 COMPUTER NETWORKS</t>
+  </si>
+  <si>
+    <t>Department :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPUTER AND SOFTWARE ENGINEERING </t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Academic Year :</t>
+  </si>
+  <si>
+    <t>Term :</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Student No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>T.C. TOROS UNIVERSITY FACULTY OF ENGINEERING</t>
+  </si>
+  <si>
+    <t>LAB GRADES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +345,13 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -773,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -799,9 +806,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -833,8 +837,65 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -851,68 +912,11 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,13 +1234,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3404B6-4B7B-45D4-A555-61E65AB190A3}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="3" max="4" width="9.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -1245,49 +1249,49 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="26"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="11"/>
       <c r="M3" s="3"/>
     </row>
@@ -1295,86 +1299,86 @@
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>2</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="17" t="s">
-        <v>3</v>
+      <c r="C5" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>5</v>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>9</v>
+      <c r="C7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1384,809 +1388,809 @@
     <row r="8" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>18</v>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>9</v>
       </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="31">
         <v>135050024</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="46"/>
+      <c r="E9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="32">
         <v>145050003</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="47"/>
+      <c r="E10" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="32">
         <v>155050005</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="47"/>
+      <c r="E11" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="32">
         <v>155050006</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="47"/>
+      <c r="E12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="39"/>
       <c r="M12" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" s="9">
         <v>5</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="32">
         <v>155050009</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="47"/>
+      <c r="E13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="39"/>
       <c r="M13" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14" s="9">
         <v>6</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="32">
         <v>155050011</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="53">
-        <v>100</v>
-      </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="47"/>
+      <c r="E14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="45">
+        <v>100</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="9">
         <v>7</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="32">
         <v>155050014</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="47"/>
+      <c r="E15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="39"/>
       <c r="M15" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C16" s="9">
         <v>8</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="32">
         <v>155050024</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="47"/>
+      <c r="E16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="39"/>
       <c r="M16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C17" s="9">
         <v>9</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="32">
         <v>155050025</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="47"/>
+      <c r="E17" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="39"/>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C18" s="9">
         <v>10</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="32">
         <v>155050032</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="47"/>
+      <c r="E18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="39"/>
       <c r="M18" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C19" s="9">
         <v>11</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="32">
         <v>165050005</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="53">
-        <v>100</v>
-      </c>
-      <c r="H19" s="54">
-        <v>100</v>
-      </c>
-      <c r="I19" s="54">
-        <v>100</v>
-      </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="47"/>
+      <c r="E19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="45">
+        <v>100</v>
+      </c>
+      <c r="H19" s="46">
+        <v>100</v>
+      </c>
+      <c r="I19" s="46">
+        <v>100</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="39"/>
       <c r="M19" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C20" s="9">
         <v>12</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="32">
         <v>165050007</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="53">
-        <v>100</v>
-      </c>
-      <c r="H20" s="54">
-        <v>100</v>
-      </c>
-      <c r="I20" s="54">
-        <v>100</v>
-      </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="47"/>
+      <c r="E20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="45">
+        <v>100</v>
+      </c>
+      <c r="H20" s="46">
+        <v>100</v>
+      </c>
+      <c r="I20" s="46">
+        <v>100</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="39"/>
       <c r="M20" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="9">
         <v>13</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="32">
         <v>165050008</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="47"/>
+      <c r="E21" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="39"/>
       <c r="M21" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C22" s="9">
         <v>14</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="32">
         <v>165050010</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="53">
-        <v>100</v>
-      </c>
-      <c r="H22" s="54">
+      <c r="E22" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="45">
+        <v>100</v>
+      </c>
+      <c r="H22" s="46">
         <v>80</v>
       </c>
-      <c r="I22" s="55"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C23" s="9">
         <v>15</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="32">
         <v>165050011</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54">
-        <v>100</v>
-      </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="47"/>
+      <c r="E23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46">
+        <v>100</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="39"/>
       <c r="M23" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C24" s="9">
         <v>16</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="32">
         <v>165050013</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="53">
-        <v>100</v>
-      </c>
-      <c r="H24" s="54">
-        <v>100</v>
-      </c>
-      <c r="I24" s="54">
-        <v>100</v>
-      </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="47"/>
+      <c r="E24" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="45">
+        <v>100</v>
+      </c>
+      <c r="H24" s="46">
+        <v>100</v>
+      </c>
+      <c r="I24" s="46">
+        <v>100</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="39"/>
       <c r="M24" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C25" s="9">
         <v>17</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="32">
         <v>165050014</v>
       </c>
-      <c r="E25" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="53">
-        <v>100</v>
-      </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54">
-        <v>100</v>
-      </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="47"/>
+      <c r="E25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="45">
+        <v>100</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46">
+        <v>100</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="39"/>
       <c r="M25" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C26" s="9">
         <v>18</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="32">
         <v>165050016</v>
       </c>
-      <c r="E26" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="53">
-        <v>100</v>
-      </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="47"/>
+      <c r="E26" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="45">
+        <v>100</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C27" s="9">
         <v>19</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="32">
         <v>165050017</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54">
+      <c r="E27" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46">
         <v>80</v>
       </c>
-      <c r="I27" s="54">
-        <v>100</v>
-      </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="47"/>
+      <c r="I27" s="46">
+        <v>100</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="39"/>
       <c r="M27" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C28" s="9">
         <v>20</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="32">
         <v>175050002</v>
       </c>
-      <c r="E28" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="53">
-        <v>100</v>
-      </c>
-      <c r="H28" s="54">
-        <v>100</v>
-      </c>
-      <c r="I28" s="54">
-        <v>100</v>
-      </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="47"/>
+      <c r="E28" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="45">
+        <v>100</v>
+      </c>
+      <c r="H28" s="46">
+        <v>100</v>
+      </c>
+      <c r="I28" s="46">
+        <v>100</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="39"/>
       <c r="M28" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C29" s="9">
         <v>21</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="32">
         <v>175050004</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="47"/>
+      <c r="E29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="39"/>
       <c r="M29" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C30" s="9">
         <v>22</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="32">
         <v>175050902</v>
       </c>
-      <c r="E30" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="53">
-        <v>100</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54">
+      <c r="E30" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="45">
+        <v>100</v>
+      </c>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46">
         <v>90</v>
       </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="47"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="39"/>
       <c r="M30" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C31" s="9">
         <v>23</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="32">
         <v>185050801</v>
       </c>
-      <c r="E31" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54">
-        <v>100</v>
-      </c>
-      <c r="I31" s="54">
-        <v>100</v>
-      </c>
-      <c r="J31" s="54"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="47"/>
+      <c r="E31" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46">
+        <v>100</v>
+      </c>
+      <c r="I31" s="46">
+        <v>100</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="39"/>
       <c r="M31" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C32" s="9">
         <v>24</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="32">
         <v>195050801</v>
       </c>
-      <c r="E32" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="47"/>
+      <c r="E32" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="39"/>
       <c r="M32" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="24">
+        <v>2</v>
+      </c>
+      <c r="C33" s="23">
         <v>25</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="23">
         <v>195050807</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="50">
-        <v>100</v>
-      </c>
-      <c r="H33" s="48">
+      <c r="E33" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="42">
+        <v>100</v>
+      </c>
+      <c r="H33" s="40">
         <v>90</v>
       </c>
-      <c r="I33" s="38">
-        <v>100</v>
-      </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="49"/>
+      <c r="I33" s="30">
+        <v>100</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="41"/>
       <c r="M33" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2197,15 +2201,15 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="D3:K3"/>
@@ -2214,6 +2218,7 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
